--- a/5 改版后自动化网页提交/5.4/paragraph.xlsx
+++ b/5 改版后自动化网页提交/5.4/paragraph.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="段落" sheetId="1" r:id="rId1"/>
+    <sheet name="应用" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
   <si>
     <t>p1s1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -33,12 +34,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>在电路系统中具有超低损耗，有利于提升系统效率，适合AC-DC电源或DC-DC电源等功率电路设计需求。</t>
-  </si>
-  <si>
-    <t>可满足一般电源系统的设计要求，适用于工业、消费、汽车等领域。</t>
-  </si>
-  <si>
     <t>p2s1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -59,212 +54,286 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>可应用在开关电源、变频器、驱动器等设备。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广泛应用在计算机、通信终端等高压整流电路中。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYY的最大正向导通电压为XXXV，低导通电压不仅可以减小正向导通损耗，同时也可以减小开关损耗，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>该二极管的最大反向电压为XXXV，平均正向整流电流可达YYYA，符合AEC-Q101标准。</t>
+  </si>
+  <si>
+    <t>此产品反向电压最大为XXXV，平均正向通态电流为YYYA，其设计符合AEC-Q101标准。</t>
+  </si>
+  <si>
+    <t>此二极管基于AEC-Q101标准设计，最大反向电压为XXXV，最大平均正向整流电流为YYYA。</t>
+  </si>
+  <si>
+    <t>YYY的正向导通电压最大为XXXV，低正向导通电压可以在减少交越失真的同时降低器件在运行过程中的功耗，</t>
+  </si>
+  <si>
+    <t>它可承受峰值正向浪涌电流达XXXA，避免由浪涌冲击引起的元件损坏。</t>
+  </si>
+  <si>
+    <t>该产品可承受的峰值正向浪涌电流达XXXA， 有效的保障了系统稳定运行。</t>
+  </si>
+  <si>
+    <t>它可承受峰值正向浪涌电流达XXXA，可有效避免来自电力线上的浪涌冲击对二极管造成损坏，提升系统的可靠性。</t>
+  </si>
+  <si>
+    <t>此款二极管能够承受XXXA的浪涌电流冲击，确保电源系统轻松应对来自电力线的浪涌冲击，使产品更加安全。</t>
+  </si>
+  <si>
+    <t>耐受峰值正向浪涌电流达XXXA，避免浪涌冲击引起的电源输入熔断器熔断，提升系统可靠性和安全性。</t>
+  </si>
+  <si>
+    <t>该产品可承受峰值正向浪涌电流达XXXA，避免浪涌冲击引起的元件过早老化、寿命大大缩短的问题，提供系统耐用度。</t>
+  </si>
+  <si>
+    <t>该二极管可承受峰值正向浪涌电流达XXXA，大大降低了浪涌电流带来的积累性危害，延长设备服役周期。</t>
+  </si>
+  <si>
+    <t>此产品峰值正向浪涌电流可达XXXA，可承受电源系统在启动瞬间的峰值电流冲击，大大提高了元件的可靠性，出色的浪涌吸收能力可为系统提供最佳的浪涌保护。</t>
+  </si>
+  <si>
+    <t>ZZZ采用XXX的封装形式，尺寸大小为YYY，不仅可节省设计面积，同时更适合大批量焊接加工。</t>
+  </si>
+  <si>
+    <t>ZZZ采用XXX封装，尺寸为YYY，可以更好满足大批量生产对效率的要求。</t>
+  </si>
+  <si>
+    <t>ZZZ采用XXX封装，组装密度高、体积小、重量轻，易于实现自动化，提高生产效率，尺寸为YYY。</t>
+  </si>
+  <si>
+    <t>ZZZ采用XXX封装，尺寸为YYY，可靠性高、抗振能力强。焊点缺陷率低。</t>
+  </si>
+  <si>
+    <t>ZZZ采用XXX封装，尺寸为YYY，高频特性好，减少电磁和射频干扰。</t>
+  </si>
+  <si>
+    <t>ZZZ采用XXX封装，系统热阻大大降低，提高元件寿命尺寸为YYY，可在小尺寸和运行效率的设计中使用。</t>
+  </si>
+  <si>
+    <t>ZZZ采用XXX封装，封装可靠性高，能够适应较为恶劣的工作环境。</t>
+  </si>
+  <si>
+    <t>开关电源</t>
+  </si>
+  <si>
+    <t>高压电路</t>
+  </si>
+  <si>
+    <t>高频脉宽调制电路</t>
+  </si>
+  <si>
+    <t>变频器</t>
+  </si>
+  <si>
+    <t>逆变器</t>
+  </si>
+  <si>
+    <t>脉宽调制器</t>
+  </si>
+  <si>
+    <t>续流二极管</t>
+  </si>
+  <si>
+    <r>
+      <t>AC-DC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电源</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DC-DC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转换器</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整流二极管</t>
+  </si>
+  <si>
+    <r>
+      <t>不间断电源</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(UPS)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新电元（ShinDengen）公司一直致力于功率电子领域，近日推出了一款快恢复二极管——XXX，</t>
+  </si>
+  <si>
+    <t>该款快恢复二极管的反向电压最大为XXXV，最大平均正向整流电流为YYYA，能够满足一般电源系统的设计要求，符合AEC-Q101标准设计。</t>
+  </si>
+  <si>
+    <t>日本新电元（ShinDengen）公司推出了一款快恢复二极管XXX，</t>
+  </si>
+  <si>
+    <t>XXX是日本新电元（ShinDengen）公司推出的一款快恢复二极管，</t>
+  </si>
+  <si>
+    <t>新电元（ShinDengen）公司推出的新产品XXX，是一款快恢复二极管，</t>
+  </si>
+  <si>
+    <t>XXX是新电元（ShinDengen）公司推出的一款性能优良的快恢复二极管，</t>
+  </si>
+  <si>
+    <t>日本新电元（ShinDengen）公司推出了一款高性能快恢复二极管——XXX，</t>
+  </si>
+  <si>
+    <t>XXX是新电元（ShinDengen）公司推出的一款针对工业化应用的快恢复二极管，</t>
+  </si>
+  <si>
+    <t>XXX是日本新电元公司推出的一款工业级快恢复二极管，</t>
+  </si>
+  <si>
+    <t>XXX是新电元公司推出的一款具有超低反向恢复时间的快恢复二极管，</t>
+  </si>
+  <si>
+    <t>它通过了AEC-Q101认证，最大反向电压为XXXV，平均正向整流电流为YYYA。</t>
+  </si>
+  <si>
+    <t>此款二极管通过了AEC-Q101认证，最大反向电压XXXV，正向平均整流电流YYYA。</t>
+  </si>
+  <si>
+    <t>其最大反向电压为XXXV，平均正向整流电流为YYYA，符合AEC-Q101认证标准。</t>
+  </si>
+  <si>
+    <t>该产品最大反向电压为XXX，最大反向电流为YYYA，符合AEC-Q101标准。</t>
+  </si>
+  <si>
+    <t>其最大反向电压可达XXXV，平均整流输出电流可达YYYA，面向工业化小型应用，符合AEC-Q101标准。</t>
+  </si>
+  <si>
+    <t>开关特性好、反向恢复时间短，可作为高频整流二极管、续流二极管或阻尼二极管使用。广泛应用在计算机、通信终端等整流电路中。</t>
+  </si>
+  <si>
+    <t>与普通PN结二极管不同，它属于PIN结型二极管，因基区很薄，反向恢复电荷很小，因此快恢复二极管的反向恢复时间较短。</t>
+  </si>
+  <si>
+    <t>采用国际标准芯片制作，所用的框架和引脚采用无缝焊接技术锻造而成，性能稳定可靠，拥有更好的包封和阻燃性能。</t>
+  </si>
+  <si>
+    <t>YYY的最大正向导通电压为XXXV，不仅可以减小正向导通损耗，同时也可以减小开关损耗，</t>
   </si>
   <si>
     <t>它能够承受正向峰值浪涌电流达XXXA，可靠性十分出色，可有从容对浪涌冲击，提升系统稳定性。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大反向电流为XXXA，低反向电流可以增强二极管的单向导电性，同时也确保电路关断的更为彻底。</t>
-  </si>
-  <si>
-    <t>YYY的正向压降最大值仅为XXXV，可有效避免设计电路产生的交越失真，提高系统运行品质，</t>
-  </si>
-  <si>
-    <t>XXX是新电元公司推出的一款肖特基二极管，</t>
-  </si>
-  <si>
-    <t>新电元（ShinDengen）公司推出了一款肖特基二极管XXX，</t>
-  </si>
-  <si>
-    <t>新电元公司推出的新产品XXX，是一款肖特基二极管，</t>
-  </si>
-  <si>
-    <t>XXX是新电元推出的一款性能优良的肖特基二极管，</t>
-  </si>
-  <si>
-    <t>新电元（ShinDengen）公司推出了一款高性能肖特基二极管——XXX，</t>
-  </si>
-  <si>
-    <t>XXX是新电元（ShinDengen）公司推出的一款针对高性能功率元件的肖特基二极管，</t>
-  </si>
-  <si>
-    <t>XXX是新电元（ShinDengen）公司推出的一款工业级肖特基二极管，</t>
-  </si>
-  <si>
-    <t>新电元（ShinDengen）公司一直致力于功率电子领域，近日推出了一款肖特基二极管——XXX，</t>
-  </si>
-  <si>
-    <t>XXX是新电元公司推出的一款具有超低反向电流的肖特基二极管，</t>
-  </si>
-  <si>
-    <t>该二极管符合AEC-Q101标准，其最大反向电压为XXXV，平均正向整流电流可达YYYA。</t>
-  </si>
-  <si>
-    <t>该二极管的最大反向电压为XXXV，平均正向整流电流可达YYYA，符合AEC-Q101标准。</t>
-  </si>
-  <si>
-    <t>其最大反向电压为XXXV，平均正向整流电流为YYYA，具有低功率损耗的特点，能够通过AEC-Q101标准认证。</t>
-  </si>
-  <si>
-    <t>此产品反向电压最大为XXXV，平均正向通态电流为YYYA，其设计符合AEC-Q101标准。</t>
-  </si>
-  <si>
-    <t>该产品最大反向电压为XXX，最大反向电流为YYYA， 有利于提高产品效率，降低芯片热功耗，符合AEC-Q101标准。</t>
-  </si>
-  <si>
-    <t>该款肖特基二极管的反向电压最大为XXXV，最大平均正向整流电流为YYYA，能够满足一般电源系统的设计要求，符合AEC-Q101标准设计。</t>
-  </si>
-  <si>
-    <t>此二极管基于AEC-Q101标准设计，最大反向电压为XXXV，最大平均正向整流电流为YYYA。</t>
-  </si>
-  <si>
-    <t>其最大反向电压可达XXXV，平均整流输出电流可达YYYA，适合大功率电源的设计，符合AEC-Q101标准。</t>
-  </si>
-  <si>
-    <t>非常适合高频应用，是高频整流设计的不二选择。</t>
-  </si>
-  <si>
-    <t>凭借其低导通电压，低结电容，此产品广泛应用于高频整流场合。</t>
-  </si>
-  <si>
-    <t>可适应高速开关频率，因此特别适用于高频整流设计中。</t>
-  </si>
-  <si>
-    <t>非常适合大功率电路的设计，如AC-DC电源、DC-DC电源等。</t>
-  </si>
-  <si>
-    <t>与传统肖特基二极管相比，在高频应用中具有更加出色的表现。</t>
-  </si>
-  <si>
-    <t>YYY的导通电压最大值仅为XXXV，远低于普通肖特基二极管，低导通电压可以减少器件在使用过程中的发热问题，</t>
-  </si>
-  <si>
-    <t>YYY的正向导通电压最大为XXXV，低正向导通电压可以在减少交越失真的同时降低器件在运行过程中的功耗，</t>
-  </si>
-  <si>
-    <t>YYY的正向导通电压最大仅为XXXV，超低正向导通电压可以使交越失真更小，并使器件损耗更低，更适合高效率系统设计，</t>
-  </si>
-  <si>
-    <t>YYY二极管的正向导通电压最大值仅为XXXV，能够有效的降低设计电源系统的功率损耗，</t>
-  </si>
-  <si>
-    <t>YYY的正向导通电压最大值仅为XXXV，可降低所需电压的条件，利于电路启动，</t>
-  </si>
-  <si>
-    <t>YYY二极管的正向导通电压最大值仅为XXXV，导通损耗很低，可极大地降低开关损耗，</t>
-  </si>
-  <si>
-    <t>YYY的正向导通电压最大值仅为XXXV，可确保二极管在电路中具有更低自身损耗，</t>
-  </si>
-  <si>
-    <t>最大反向电流不超过XXXA，低反向电流不仅可以降低二极管的损耗，同时还可降低系统的电磁干扰问题。</t>
-  </si>
-  <si>
-    <t>最大反向电流为XXXA，超低反向电流可以降低二极管的损耗，尤其在高频电路中更为显著。</t>
-  </si>
-  <si>
-    <t>最大反向电流不超过XXXA，低反向电流可以有效降低系统的电磁干扰问题。</t>
-  </si>
-  <si>
-    <t>最大反向电流为XXXA， 有利于提高产品效率，降低芯片热功耗。</t>
-  </si>
-  <si>
-    <t>反向电流最大XXXA，可使关断更彻底，同时也可降低运行过程的损耗。</t>
-  </si>
-  <si>
-    <t>反向饱和电流最大为XXXA，有利于提高二极管的单向导通特性。</t>
-  </si>
-  <si>
-    <t>反向饱和电流最大为XXXA，有着极好的单向导电性。</t>
-  </si>
-  <si>
-    <t>最大反向电流为XXXA，反向电流越低，其引起的损耗越小，可以有效地提高设备的使用寿命。</t>
-  </si>
-  <si>
-    <t>它可承受峰值正向浪涌电流达XXXA，避免由浪涌冲击引起的元件损坏。</t>
-  </si>
-  <si>
-    <t>该产品可承受的峰值正向浪涌电流达XXXA， 有效的保障了系统稳定运行。</t>
-  </si>
-  <si>
-    <t>它可承受峰值正向浪涌电流达XXXA，可有效避免来自电力线上的浪涌冲击对二极管造成损坏，提升系统的可靠性。</t>
-  </si>
-  <si>
-    <t>此款二极管能够承受XXXA的浪涌电流冲击，确保电源系统轻松应对来自电力线的浪涌冲击，使产品更加安全。</t>
-  </si>
-  <si>
-    <t>耐受峰值正向浪涌电流达XXXA，避免浪涌冲击引起的电源输入熔断器熔断，提升系统可靠性和安全性。</t>
-  </si>
-  <si>
-    <t>该产品可承受峰值正向浪涌电流达XXXA，避免浪涌冲击引起的元件过早老化、寿命大大缩短的问题，提供系统耐用度。</t>
-  </si>
-  <si>
-    <t>该二极管可承受峰值正向浪涌电流达XXXA，大大降低了浪涌电流带来的积累性危害，延长设备服役周期。</t>
-  </si>
-  <si>
-    <t>此产品峰值正向浪涌电流可达XXXA，可承受电源系统在启动瞬间的峰值电流冲击，大大提高了元件的可靠性，出色的浪涌吸收能力可为系统提供最佳的浪涌保护。</t>
-  </si>
-  <si>
-    <t>ZZZ采用XXX的封装形式，尺寸大小为YYY，不仅可节省设计面积，同时更适合大批量焊接加工。</t>
-  </si>
-  <si>
-    <t>ZZZ采用XXX封装，尺寸为YYY，可以更好满足大批量生产对效率的要求。</t>
-  </si>
-  <si>
-    <t>ZZZ采用XXX封装，组装密度高、体积小、重量轻，易于实现自动化，提高生产效率，尺寸为YYY。</t>
-  </si>
-  <si>
-    <t>ZZZ采用XXX封装，尺寸为YYY，可靠性高、抗振能力强。焊点缺陷率低。</t>
-  </si>
-  <si>
-    <t>ZZZ采用XXX封装，尺寸为YYY，高频特性好，减少电磁和射频干扰。</t>
-  </si>
-  <si>
-    <t>ZZZ二极管采用XXX封装，贴片元件的体积和重量只有传统插装元件的1/10左右，尺寸为YYY。</t>
-  </si>
-  <si>
-    <t>ZZZ采用XXX封装，系统热阻大大降低，提高元件寿命尺寸为YYY，可在小尺寸和运行效率的设计中使用。</t>
-  </si>
-  <si>
-    <t>ZZZ采用XXX封装，封装可靠性高，能够适应较为恶劣的工作环境。</t>
-  </si>
-  <si>
-    <t>结电容典型值为XXXpF，更容易通过高频，因此更适用于高频操作。</t>
-  </si>
-  <si>
-    <t>该款肖特基二极管具有超低结电容，最小仅XXXpF，可适应高速开关频率，尤其适合用于高频整流设计中。</t>
-  </si>
-  <si>
-    <t>结电容典型值为XXXpF，超低结电容可使充放电过程更加迅速，使其具有更快响应速度。</t>
-  </si>
-  <si>
-    <t>该款肖特基二极管的结电容典型值为XXXpF，不仅更适合高频开关电路的设计，同时可以有效降低高频电路的损耗。</t>
-  </si>
-  <si>
-    <t>该款肖特基二极管结电容典型值为XXXpF，超低结电容可有效降低电容存储效应。</t>
-  </si>
-  <si>
-    <t>该款肖特基二极管的结电容仅XXXpF，因此特别适用于高速开关设计。</t>
-  </si>
-  <si>
-    <t>该款肖特基二极管的结电容仅XXXpF，可确保器件进行快速充放电，对外部的浪涌冲击及时响应。</t>
-  </si>
-  <si>
-    <t>该款肖特基二极管的结电容仅XXXpF，非常适用于保护敏感设备免受ESD损坏。</t>
-  </si>
-  <si>
-    <t>此款二极管通过了AEC-Q101认证，最大反向电压XXXV，其正向平均整流电流YYYA。</t>
+  </si>
+  <si>
+    <t>YYY的正向压降最大值为XXXV，可有效避免设计电路产生的交越失真，提高系统运行品质，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYY的导通电压最大值为XXXV，可以有效降低电子元器件在使用过程中的发热问题，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYY二极管的正向导通电压最大值为XXXV，能够有效的降低设计电源系统的功率损耗，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYY的正向导通电压最大为XXXV，使得器件损耗更低，更适合高效率系统设计，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYY的正向导通电压最大值为XXXV，可降低电路中所需电压的条件，利于电路设计，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYY二极管的正向导通电压最大值为XXXV，导通损耗很低，能够有效降低开关损耗，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYY的正向导通电压最大值为XXXV，可确保二极管在电路中具有更低的自身损耗，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大反向电流为XXXμA，低反向电流可以增强二极管的单向导电性，同时也确保电路关断的更为彻底。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大反向电流不超过XXXμA，低反向电流不仅可以降低二极管的损耗，同时还可降低系统的电磁干扰问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大反向电流不超过XXXμA，低反向电流可以有效降低系统的电磁干扰问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大反向电流为XXXμA， 有利于提高产品效率，降低芯片热功耗。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反向饱和电流最大为XXXμA，有利于提高二极管的单向导通特性。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大反向电流仅为XXXμA，反向电流越低，其引起的损耗越小，可以有效地提高设备的使用寿命。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反向电流最大仅为XXXμA，可使关断更彻底，同时也可降低运行过程的损耗。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大反向电流仅为XXXμA，超低反向电流可以降低二极管的损耗，尤其在高频电路中更为显著。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此款芯片的反向恢复时间仅为XXXns，储存温度为ZZZ（℃），结温最大可达YYY℃，能够适应恶劣的环境条件。</t>
+  </si>
+  <si>
+    <t>它的反向恢复时间为XXXns，导通速度快。结温最大可达YYY℃，储存温度为ZZZ（℃），能够轻易适应各种恶劣的工作环境。</t>
+  </si>
+  <si>
+    <t>反向恢复时间短，仅为XXXns，性能优异。此快恢复二极管结温可达YYY℃，储存温度为ZZZ（℃），环境适应能力强。</t>
+  </si>
+  <si>
+    <t>该二极管结温可达YYY℃，储存温度为ZZZ（℃），能够适应不同的工作环境。同时，反向恢复时间仅为XXXns，导通速度快。</t>
+  </si>
+  <si>
+    <t>是一种具有开关特性好、反向恢复时间短特点的半导体二极管，主要应用于开关电源、PWM脉宽调制器、变频器等电子电路中，作为高频整流二极管、续流二极管或阻尼二极管使用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与普通二极管不同，它在P型、N型材料中间增加了基区I，构成PIN硅片，由于基区很薄，反向恢复电荷很小，大大减小了反向恢复时间，同时降低了瞬态正向压降。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在开关电源、脉宽调制器(PWM)、不间断电源(UPS)、高频加热、交流电机变频调速等电子设备中得到了广泛的应用，是极有发展前途的电力、电子半导体器件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>它具有开关特性好，反向恢复时间短、正向电流大、体积较小、安装简便等优点，可作高频、大电流的整流、续流二极管。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具有开关特性好、反向恢复时间短等优点，广泛应用于开关电源、PWM脉宽调制器、变频器等电子电路中。可满足一般电源系统的设计要求，适用于工业、消费、汽车等领域。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该快恢复二极管的反向恢复时间典型值低至XXXns，结温最大可达YYY℃，储存温度为ZZZ（℃），可在大部分环境下使用。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -272,7 +341,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,6 +362,19 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -605,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -620,31 +702,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -652,31 +734,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -684,192 +766,255 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/5 改版后自动化网页提交/5.4/paragraph.xlsx
+++ b/5 改版后自动化网页提交/5.4/paragraph.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
@@ -220,9 +220,6 @@
     <t>其最大反向电压为XXXV，平均正向整流电流为YYYA，符合AEC-Q101认证标准。</t>
   </si>
   <si>
-    <t>该产品最大反向电压为XXX，最大反向电流为YYYA，符合AEC-Q101标准。</t>
-  </si>
-  <si>
     <t>其最大反向电压可达XXXV，平均整流输出电流可达YYYA，面向工业化小型应用，符合AEC-Q101标准。</t>
   </si>
   <si>
@@ -334,6 +331,10 @@
   </si>
   <si>
     <t>该快恢复二极管的反向恢复时间典型值低至XXXns，结温最大可达YYY℃，储存温度为ZZZ（℃），可在大部分环境下使用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该产品最大反向电压为XXXV，最大反向电流为YYYA，符合AEC-Q101标准。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -687,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -749,7 +750,7 @@
         <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>39</v>
@@ -758,7 +759,7 @@
         <v>10</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -766,28 +767,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -796,31 +797,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -828,28 +829,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -857,7 +858,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -916,19 +917,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
